--- a/CashFlow/LVS_cashflow.xlsx
+++ b/CashFlow/LVS_cashflow.xlsx
@@ -1046,19 +1046,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>302000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-51000000.0</v>
+        <v>314000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>121000000.0</v>
+        <v>414000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>227000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>118000000.0</v>
+        <v>266000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-53000000.0</v>
